--- a/Atlique_FMCG_promotional_analysis/recommended insights/store_performance/variation_accross_stores.xlsx
+++ b/Atlique_FMCG_promotional_analysis/recommended insights/store_performance/variation_accross_stores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivek\sql\SQL\Atlique_FMCG_promotional_analysis\recommended insights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivek\sql\SQL\Atlique_FMCG_promotional_analysis\recommended insights\store_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA32E88-612A-4230-979A-1186A69EBF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD7C97-5160-4DCB-9C72-DD4EEC1C2762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,6 +816,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38848226950354608"/>
+          <c:y val="2.7805319868409766E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -939,7 +947,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8183414307254145E-2"/>
+          <c:y val="9.748071333238903E-2"/>
+          <c:w val="0.94479530909700116"/>
+          <c:h val="0.63869916988027997"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1059,24 +1077,24 @@
                 <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>STCBE-0</c:v>
+                    <c:v>STVSK-0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>STCBE-1</c:v>
+                    <c:v>STVSK-1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>STCBE-2</c:v>
+                    <c:v>STVSK-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>STCBE-3</c:v>
+                    <c:v>STVSK-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>STCBE-4</c:v>
+                    <c:v>STVSK-4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Coimbatore</c:v>
+                    <c:v>Visakhapatnam</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1089,19 +1107,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8657</c:v>
+                  <c:v>7527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7446</c:v>
+                  <c:v>7614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8535</c:v>
+                  <c:v>7254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7663</c:v>
+                  <c:v>5548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6599</c:v>
+                  <c:v>5973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,6 +1150,72 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>City</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> and its stores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46117679119897248"/>
+              <c:y val="0.884704181321608"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1180,7 +1264,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1196,36 +1280,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>revenue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> in millions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1111956768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1240,6 +1356,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69172305802200262"/>
+          <c:y val="5.1766523093128625E-2"/>
+          <c:w val="3.8681454179929638E-2"/>
+          <c:h val="5.5819865417264337E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1839,15 +1965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2220,7 +2346,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF76B5E9-6520-4AFE-8281-C98821B3E4E6}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="50">
         <item x="0"/>
         <item x="1"/>
@@ -2286,18 +2412,18 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
       <items count="10">
+        <item x="9"/>
+        <item h="1" x="8"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2312,20 +2438,20 @@
   </rowFields>
   <rowItems count="5">
     <i>
-      <x v="2"/>
-      <x v="10"/>
+      <x/>
+      <x v="45"/>
     </i>
     <i r="1">
-      <x v="11"/>
+      <x v="46"/>
     </i>
     <i r="1">
-      <x v="12"/>
+      <x v="47"/>
     </i>
     <i r="1">
-      <x v="13"/>
+      <x v="48"/>
     </i>
     <i r="1">
-      <x v="14"/>
+      <x v="49"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2657,7 +2783,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,57 +2806,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
-        <v>8657</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2">
-        <v>7446</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2">
-        <v>8535</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2">
-        <v>7663</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2">
-        <v>6599</v>
+        <v>5973</v>
       </c>
     </row>
   </sheetData>

--- a/Atlique_FMCG_promotional_analysis/recommended insights/store_performance/variation_accross_stores.xlsx
+++ b/Atlique_FMCG_promotional_analysis/recommended insights/store_performance/variation_accross_stores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivek\sql\SQL\Atlique_FMCG_promotional_analysis\recommended insights\store_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD7C97-5160-4DCB-9C72-DD4EEC1C2762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B7588A-E0E2-41C3-B8A2-EC0D7C7028A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
   <si>
     <t>store_id</t>
   </si>
@@ -1072,29 +1072,44 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$B$8</c:f>
+              <c:f>Sheet1!$A$4:$B$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>STVSK-0</c:v>
+                    <c:v>STBLR-0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>STVSK-1</c:v>
+                    <c:v>STBLR-1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>STVSK-2</c:v>
+                    <c:v>STBLR-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>STVSK-3</c:v>
+                    <c:v>STBLR-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>STVSK-4</c:v>
+                    <c:v>STBLR-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>STBLR-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>STBLR-6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>STBLR-7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>STBLR-8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>STBLR-9</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Visakhapatnam</c:v>
+                    <c:v>Bengaluru</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1102,24 +1117,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7527</c:v>
+                  <c:v>11425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7614</c:v>
+                  <c:v>8599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7254</c:v>
+                  <c:v>9557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5548</c:v>
+                  <c:v>10752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5973</c:v>
+                  <c:v>10573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11866</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,7 +2374,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF76B5E9-6520-4AFE-8281-C98821B3E4E6}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <location ref="A3:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="50">
@@ -2414,7 +2444,7 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
       <items count="10">
-        <item x="9"/>
+        <item h="1" x="9"/>
         <item h="1" x="8"/>
         <item h="1" x="7"/>
         <item h="1" x="6"/>
@@ -2423,7 +2453,7 @@
         <item h="1" x="3"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2436,22 +2466,37 @@
     <field x="2"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="10">
     <i>
+      <x v="9"/>
       <x/>
-      <x v="45"/>
     </i>
     <i r="1">
-      <x v="46"/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x v="47"/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="48"/>
+      <x v="3"/>
     </i>
     <i r="1">
-      <x v="49"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2484,9 +2529,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2524,7 +2569,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2630,7 +2675,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2772,7 +2817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2780,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333363DF-99DD-4823-945A-0C8F9BFF8BC6}">
-  <dimension ref="A3:C8"/>
+  <dimension ref="A3:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,57 +2851,112 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>7527</v>
+        <v>11425</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>7614</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>7254</v>
+        <v>9557</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>5548</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>5973</v>
+        <v>10573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10071</v>
       </c>
     </row>
   </sheetData>
